--- a/data/schub/small/courses.xlsx
+++ b/data/schub/small/courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layo\Desktop\ALX\schub\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92944C73-D5C0-4CC8-862B-95AEA417FED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3E58FE-57AF-43EC-89D8-7F1AF7F6BC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="210" windowWidth="21600" windowHeight="15000" xr2:uid="{1B4C9B75-1000-4287-A35B-5484D5AABA99}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{1B4C9B75-1000-4287-A35B-5484D5AABA99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -746,7 +756,7 @@
   <dimension ref="A1:M606"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -810,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -831,7 +841,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -852,7 +862,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -873,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -894,7 +904,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -915,7 +925,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -936,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -957,7 +967,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -978,7 +988,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -999,7 +1009,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1020,7 +1030,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1041,7 +1051,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1062,7 +1072,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1083,7 +1093,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1104,7 +1114,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1125,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1146,7 +1156,7 @@
         <v>51</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1167,7 +1177,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1188,7 +1198,7 @@
         <v>53</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1209,7 +1219,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1230,7 +1240,7 @@
         <v>55</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1251,7 +1261,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1272,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1293,7 +1303,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -1314,7 +1324,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1335,7 +1345,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1356,7 +1366,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1377,7 +1387,7 @@
         <v>59</v>
       </c>
       <c r="B30" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1398,7 +1408,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1419,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1440,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1461,7 +1471,7 @@
         <v>61</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1482,7 +1492,7 @@
         <v>62</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1503,7 +1513,7 @@
         <v>63</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1524,7 +1534,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1545,7 +1555,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -1566,7 +1576,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -1587,7 +1597,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -1608,7 +1618,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -1629,7 +1639,7 @@
         <v>66</v>
       </c>
       <c r="B42" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -1650,7 +1660,7 @@
         <v>67</v>
       </c>
       <c r="B43" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -1671,7 +1681,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1692,7 +1702,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -1713,7 +1723,7 @@
         <v>70</v>
       </c>
       <c r="B46" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -3400,7 +3410,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
